--- a/DataRepo/data/tests/small_obob/glucose/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/glucose/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/glucose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD02406E-F1A6-594B-BA8D-43D67E7273E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D064A4-A8CF-F54F-BCE1-6596E450E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="5640" windowWidth="28800" windowHeight="16480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Tissues" sheetId="4" r:id="rId10"/>
     <sheet name="Compounds" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="320">
   <si>
     <t>Infusate</t>
   </si>
@@ -2642,9 +2642,6 @@
   </si>
   <si>
     <t>Michael Neinast, polar-HILIC-25-min, unknown, 2021-04-29</t>
-  </si>
-  <si>
-    <t>DataRepo/data/tests/small_obob/glucose/small_obob_maven_6eaas_inf_glucose.xlsx</t>
   </si>
   <si>
     <t>small_obob_maven_6eaas_inf_glucose.xlsx</t>
@@ -23952,7 +23949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23994,7 +23991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -24036,7 +24033,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>318</v>
@@ -24050,7 +24047,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>318</v>
